--- a/sp500-historical-components-and-changes/wiki_unique.xlsx
+++ b/sp500-historical-components-and-changes/wiki_unique.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yingchen\Documents\GitHub\analyzingalpha\sp500-historical-components-and-changes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0DB793-D31A-41A5-B128-C42CCF7FBF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18276" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="286">
   <si>
     <t>effective_date</t>
   </si>
@@ -28,6 +22,9 @@
     <t>ticker</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>variable</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>announcement_date</t>
   </si>
   <si>
@@ -196,6 +190,9 @@
     <t>HOT</t>
   </si>
   <si>
+    <t>COTY</t>
+  </si>
+  <si>
     <t>EVHC</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
     <t>REG</t>
   </si>
   <si>
+    <t>DISH</t>
+  </si>
+  <si>
     <t>HAR</t>
   </si>
   <si>
@@ -259,6 +259,36 @@
     <t>DXC</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>TGNA</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>ALGN</t>
+  </si>
+  <si>
+    <t>ANSS</t>
+  </si>
+  <si>
+    <t>YHOO</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
     <t>RAI</t>
   </si>
   <si>
@@ -289,46 +319,550 @@
     <t>DRE</t>
   </si>
   <si>
+    <t>AN</t>
+  </si>
+  <si>
     <t>BHF</t>
   </si>
   <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>SPLS</t>
+  </si>
+  <si>
+    <t>NCLH</t>
+  </si>
+  <si>
     <t>BCR</t>
   </si>
   <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>SIVB</t>
+  </si>
+  <si>
     <t>CSRA</t>
   </si>
   <si>
     <t>MSCI</t>
   </si>
   <si>
+    <t>ABMD</t>
+  </si>
+  <si>
     <t>EVRG</t>
   </si>
   <si>
     <t>NAVI</t>
   </si>
   <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>GGP</t>
+  </si>
+  <si>
     <t>XL</t>
   </si>
   <si>
     <t>WCG</t>
   </si>
   <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>EQT</t>
+  </si>
+  <si>
+    <t>JKHY</t>
+  </si>
+  <si>
+    <t>AET</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>MXIM</t>
+  </si>
+  <si>
+    <t>ESRX</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
     <t>FLR</t>
   </si>
   <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>MKTX</t>
+  </si>
+  <si>
     <t>LLL</t>
   </si>
   <si>
+    <t>IEX</t>
+  </si>
+  <si>
     <t>CDW</t>
   </si>
   <si>
     <t>TSS</t>
   </si>
   <si>
+    <t>NVR</t>
+  </si>
+  <si>
+    <t>JEF</t>
+  </si>
+  <si>
     <t>NOW</t>
   </si>
   <si>
     <t>CELG</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
+    <t>Fossil Group</t>
+  </si>
+  <si>
+    <t>Willis Towers Watson</t>
+  </si>
+  <si>
+    <t>Extra Space Storage</t>
+  </si>
+  <si>
+    <t>Chubb Corp</t>
+  </si>
+  <si>
+    <t>Federal Realty Investment Trust</t>
+  </si>
+  <si>
+    <t>Broadcom Corporation</t>
+  </si>
+  <si>
+    <t>Precision Castparts Corp.</t>
+  </si>
+  <si>
+    <t>Citizens Financial Group</t>
+  </si>
+  <si>
+    <t>Concho Resources</t>
+  </si>
+  <si>
+    <t>Plum Creek Timber</t>
+  </si>
+  <si>
+    <t>American Water Works Company Inc</t>
+  </si>
+  <si>
+    <t>Consol Energy</t>
+  </si>
+  <si>
+    <t>Keurig Green Mountain</t>
+  </si>
+  <si>
+    <t>UDR, Inc.</t>
+  </si>
+  <si>
+    <t>Ensco plc (now Valaris plc</t>
+  </si>
+  <si>
+    <t>Pepco Holdings Inc</t>
+  </si>
+  <si>
+    <t>Hologic Inc</t>
+  </si>
+  <si>
+    <t>Centene Corporation</t>
+  </si>
+  <si>
+    <t>Cameron International</t>
+  </si>
+  <si>
+    <t>Foot Locker Inc</t>
+  </si>
+  <si>
+    <t>Under Armour Class C</t>
+  </si>
+  <si>
+    <t>Tenet Healthcare</t>
+  </si>
+  <si>
+    <t>Ulta Salon, Cosmetics &amp; Fragrance Inc</t>
+  </si>
+  <si>
+    <t>GameStop</t>
+  </si>
+  <si>
+    <t>Global Payments Inc.</t>
+  </si>
+  <si>
+    <t>Acuity Brands Inc</t>
+  </si>
+  <si>
+    <t>ADT Corp</t>
+  </si>
+  <si>
+    <t>Alaska Air Group Inc</t>
+  </si>
+  <si>
+    <t>SanDisk Corporation</t>
+  </si>
+  <si>
+    <t>Digital Realty Trust Inc</t>
+  </si>
+  <si>
+    <t>Time Warner Cable</t>
+  </si>
+  <si>
+    <t>Airgas Inc</t>
+  </si>
+  <si>
+    <t>LKQ Corporation</t>
+  </si>
+  <si>
+    <t>Coca-Cola Enterprises</t>
+  </si>
+  <si>
+    <t>Arthur J. Gallagher &amp; Co.</t>
+  </si>
+  <si>
+    <t>Baxalta Inc</t>
+  </si>
+  <si>
+    <t>TransDigm Group</t>
+  </si>
+  <si>
+    <t>Fortune Brands Home &amp; Security</t>
+  </si>
+  <si>
+    <t>Cablevision Systems</t>
+  </si>
+  <si>
+    <t>Alliant Energy Corp</t>
+  </si>
+  <si>
+    <t>TECO Energy</t>
+  </si>
+  <si>
+    <t>AGL Resources</t>
+  </si>
+  <si>
+    <t>Albemarle Corp</t>
+  </si>
+  <si>
+    <t>Fortive Corp</t>
+  </si>
+  <si>
+    <t>Mettler Toledo</t>
+  </si>
+  <si>
+    <t>Johnson Controls Inc</t>
+  </si>
+  <si>
+    <t>EMC Corporation</t>
+  </si>
+  <si>
+    <t>Charter Communications</t>
+  </si>
+  <si>
+    <t>The Cooper Companies</t>
+  </si>
+  <si>
+    <t>Starwood Hotels &amp; Resorts Worldwide Inc</t>
+  </si>
+  <si>
+    <t>Coty, Inc.</t>
+  </si>
+  <si>
+    <t>Envision Healthcare</t>
+  </si>
+  <si>
+    <t>Mid-America Apartments</t>
+  </si>
+  <si>
+    <t>Owens-Illinois</t>
+  </si>
+  <si>
+    <t>Legg Mason</t>
+  </si>
+  <si>
+    <t>IDEXX Laboratories</t>
+  </si>
+  <si>
+    <t>St. Jude Medical</t>
+  </si>
+  <si>
+    <t>Incyte</t>
+  </si>
+  <si>
+    <t>Spectra Energy Corp</t>
+  </si>
+  <si>
+    <t>CBOE Holdings</t>
+  </si>
+  <si>
+    <t>Pitney Bowes Inc</t>
+  </si>
+  <si>
+    <t>Endo International</t>
+  </si>
+  <si>
+    <t>Regency Centers Corporation</t>
+  </si>
+  <si>
+    <t>Dish Network</t>
+  </si>
+  <si>
+    <t>Harman Int'l Industries</t>
+  </si>
+  <si>
+    <t>Synopsys</t>
+  </si>
+  <si>
+    <t>First Solar</t>
+  </si>
+  <si>
+    <t>Frontier Communications</t>
+  </si>
+  <si>
+    <t>Alexandria Real Estate Equities</t>
+  </si>
+  <si>
+    <t>Raymond James Financial</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices</t>
+  </si>
+  <si>
+    <t>Urban Outfitters</t>
+  </si>
+  <si>
+    <t>DXC Technology</t>
+  </si>
+  <si>
+    <t>Gartner Inc</t>
+  </si>
+  <si>
+    <t>Tegna, Inc.</t>
+  </si>
+  <si>
+    <t>IHS Markit Ltd.</t>
+  </si>
+  <si>
+    <t>Ryder Systems Inc.</t>
+  </si>
+  <si>
+    <t>Everest Re Group</t>
+  </si>
+  <si>
+    <t>Align Technology Inc.</t>
+  </si>
+  <si>
+    <t>ANSYS Inc.</t>
+  </si>
+  <si>
+    <t>Yahoo! Inc.</t>
+  </si>
+  <si>
+    <t>Hilton Worldwide Holdings Inc.</t>
+  </si>
+  <si>
+    <t>Teradata Corp.</t>
+  </si>
+  <si>
+    <t>Reynolds American</t>
+  </si>
+  <si>
+    <t>ResMed</t>
+  </si>
+  <si>
+    <t>Mallinckrodt</t>
+  </si>
+  <si>
+    <t>MGM Resorts International</t>
+  </si>
+  <si>
+    <t>Transocean</t>
+  </si>
+  <si>
+    <t>Bed Bath &amp; Beyond</t>
+  </si>
+  <si>
+    <t>Murphy Oil</t>
+  </si>
+  <si>
+    <t>Packaging Corporation of America</t>
+  </si>
+  <si>
+    <t>A.O. Smith</t>
+  </si>
+  <si>
+    <t>Duke Realty Corp</t>
+  </si>
+  <si>
+    <t>AutoNation Inc</t>
+  </si>
+  <si>
+    <t>Brighthouse Financial Inc</t>
+  </si>
+  <si>
+    <t>QuintilesIMS</t>
+  </si>
+  <si>
+    <t>Staples Inc.</t>
+  </si>
+  <si>
+    <t>Norwegian Cruise Line Holdings</t>
+  </si>
+  <si>
+    <t>CR Bard</t>
+  </si>
+  <si>
+    <t>Take-Two Interactive</t>
+  </si>
+  <si>
+    <t>SVB Financial</t>
+  </si>
+  <si>
+    <t>CSRA Inc.</t>
+  </si>
+  <si>
+    <t>Abiomed</t>
+  </si>
+  <si>
+    <t>Evergy</t>
+  </si>
+  <si>
+    <t>Navient Corp</t>
+  </si>
+  <si>
+    <t>Dr Pepper Snapple Group</t>
+  </si>
+  <si>
+    <t>GGP Inc.</t>
+  </si>
+  <si>
+    <t>XL Group</t>
+  </si>
+  <si>
+    <t>WellCare</t>
+  </si>
+  <si>
+    <t>Rollins Inc.</t>
+  </si>
+  <si>
+    <t>CA Inc.</t>
+  </si>
+  <si>
+    <t>EQT Corp</t>
+  </si>
+  <si>
+    <t>Jack Henry &amp; Associates</t>
+  </si>
+  <si>
+    <t>Aetna Inc</t>
+  </si>
+  <si>
+    <t>Lamb Weston Holdings Inc</t>
+  </si>
+  <si>
+    <t>Maxim Integrated Products Inc</t>
+  </si>
+  <si>
+    <t>Express Scripts</t>
+  </si>
+  <si>
+    <t>First Republic Bank</t>
+  </si>
+  <si>
+    <t>PG&amp;E Corp</t>
+  </si>
+  <si>
+    <t>Atmos Energy Corp</t>
+  </si>
+  <si>
+    <t>Wabtec Corporation</t>
+  </si>
+  <si>
+    <t>The Goodyear Tire &amp; Rubber Company</t>
+  </si>
+  <si>
+    <t>Dow Inc.</t>
+  </si>
+  <si>
+    <t>Brighthouse Financial</t>
+  </si>
+  <si>
+    <t>Fluor Corporation</t>
+  </si>
+  <si>
+    <t>Bemis Co Inc</t>
+  </si>
+  <si>
+    <t>Mattel Inc</t>
+  </si>
+  <si>
+    <t>MarketAxess</t>
+  </si>
+  <si>
+    <t>L3 Technologies</t>
+  </si>
+  <si>
+    <t>IDEX Corporation</t>
+  </si>
+  <si>
+    <t>TSYS</t>
+  </si>
+  <si>
+    <t>NVR Inc</t>
+  </si>
+  <si>
+    <t>Jefferies Financial Group Inc</t>
+  </si>
+  <si>
+    <t>ServiceNow</t>
+  </si>
+  <si>
+    <t>Celgene</t>
+  </si>
+  <si>
+    <t>W. R. Berkley Corporation</t>
+  </si>
+  <si>
+    <t>STERIS plc</t>
   </si>
   <si>
     <t>removed_ticker</t>
@@ -343,11 +877,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,14 +945,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -465,7 +991,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,27 +1023,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,24 +1057,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,20 +1232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -792,13 +1276,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>283</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -809,13 +1296,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>284</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -826,13 +1316,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>284</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,13 +1336,16 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>283</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,13 +1356,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>284</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -877,13 +1376,16 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>283</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -894,13 +1396,16 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>283</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -911,13 +1416,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>284</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -928,13 +1436,16 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>284</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -945,13 +1456,16 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>283</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -962,13 +1476,16 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>284</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -979,13 +1496,16 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>283</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -996,13 +1516,16 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>283</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1013,13 +1536,16 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>284</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1030,13 +1556,16 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>283</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1047,13 +1576,16 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>283</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1064,13 +1596,16 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>284</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1081,13 +1616,16 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>284</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1098,13 +1636,16 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>283</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1115,13 +1656,16 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>284</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1132,13 +1676,16 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>284</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1149,13 +1696,16 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>283</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1166,13 +1716,16 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>284</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1183,13 +1736,16 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>283</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1200,13 +1756,16 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
+        <v>284</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1217,13 +1776,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>171</v>
+      </c>
+      <c r="E27" t="s">
+        <v>284</v>
       </c>
       <c r="I27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1234,13 +1796,16 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>283</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1251,13 +1816,16 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>173</v>
+      </c>
+      <c r="E29" t="s">
+        <v>284</v>
       </c>
       <c r="I29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1268,13 +1836,16 @@
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>174</v>
+      </c>
+      <c r="E30" t="s">
+        <v>283</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1285,13 +1856,16 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>175</v>
+      </c>
+      <c r="E31" t="s">
+        <v>284</v>
       </c>
       <c r="I31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1302,13 +1876,16 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>283</v>
       </c>
       <c r="I32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1319,13 +1896,16 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>177</v>
+      </c>
+      <c r="E33" t="s">
+        <v>283</v>
       </c>
       <c r="I33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1336,13 +1916,16 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>178</v>
+      </c>
+      <c r="E34" t="s">
+        <v>284</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1353,13 +1936,16 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>283</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1370,13 +1956,16 @@
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>284</v>
       </c>
       <c r="I36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1387,13 +1976,16 @@
         <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>181</v>
+      </c>
+      <c r="E37" t="s">
+        <v>283</v>
       </c>
       <c r="I37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1404,13 +1996,16 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>284</v>
       </c>
       <c r="I38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1421,13 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>183</v>
+      </c>
+      <c r="E39" t="s">
+        <v>284</v>
       </c>
       <c r="I39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1438,13 +2036,16 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>184</v>
+      </c>
+      <c r="E40" t="s">
+        <v>283</v>
       </c>
       <c r="I40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1455,13 +2056,16 @@
         <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>185</v>
+      </c>
+      <c r="E41" t="s">
+        <v>284</v>
       </c>
       <c r="I41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1472,13 +2076,16 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>186</v>
+      </c>
+      <c r="E42" t="s">
+        <v>283</v>
       </c>
       <c r="I42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1489,13 +2096,16 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>187</v>
+      </c>
+      <c r="E43" t="s">
+        <v>283</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1506,13 +2116,16 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>188</v>
+      </c>
+      <c r="E44" t="s">
+        <v>284</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1523,13 +2136,16 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>189</v>
+      </c>
+      <c r="E45" t="s">
+        <v>284</v>
       </c>
       <c r="I45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1540,13 +2156,16 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>190</v>
+      </c>
+      <c r="E46" t="s">
+        <v>284</v>
       </c>
       <c r="I46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1557,13 +2176,16 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>191</v>
+      </c>
+      <c r="E47" t="s">
+        <v>283</v>
       </c>
       <c r="I47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1574,13 +2196,16 @@
         <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>192</v>
+      </c>
+      <c r="E48" t="s">
+        <v>283</v>
       </c>
       <c r="I48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1591,13 +2216,16 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>193</v>
+      </c>
+      <c r="E49" t="s">
+        <v>284</v>
       </c>
       <c r="I49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1608,13 +2236,16 @@
         <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>194</v>
+      </c>
+      <c r="E50" t="s">
+        <v>284</v>
       </c>
       <c r="I50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1625,32 +2256,38 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>195</v>
+      </c>
+      <c r="E51" t="s">
+        <v>283</v>
       </c>
       <c r="I51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>42706</v>
+        <v>42643</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>196</v>
+      </c>
+      <c r="E52" t="s">
+        <v>284</v>
       </c>
       <c r="I52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
         <v>42706</v>
@@ -1659,15 +2296,18 @@
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>197</v>
+      </c>
+      <c r="E53" t="s">
+        <v>284</v>
       </c>
       <c r="I53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
         <v>42706</v>
@@ -1676,15 +2316,18 @@
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>198</v>
+      </c>
+      <c r="E54" t="s">
+        <v>284</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>42706</v>
@@ -1693,32 +2336,38 @@
         <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>199</v>
+      </c>
+      <c r="E55" t="s">
+        <v>283</v>
       </c>
       <c r="I55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>42740</v>
+        <v>42706</v>
       </c>
       <c r="C56" t="s">
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>283</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>42740</v>
@@ -1727,32 +2376,38 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>201</v>
+      </c>
+      <c r="E57" t="s">
+        <v>284</v>
       </c>
       <c r="I57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>42794</v>
+        <v>42740</v>
       </c>
       <c r="C58" t="s">
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>202</v>
+      </c>
+      <c r="E58" t="s">
+        <v>283</v>
       </c>
       <c r="I58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
         <v>42794</v>
@@ -1761,32 +2416,38 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>203</v>
+      </c>
+      <c r="E59" t="s">
+        <v>284</v>
       </c>
       <c r="I59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>42795</v>
+        <v>42794</v>
       </c>
       <c r="C60" t="s">
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>204</v>
+      </c>
+      <c r="E60" t="s">
+        <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2">
         <v>42795</v>
@@ -1795,32 +2456,38 @@
         <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>205</v>
+      </c>
+      <c r="E61" t="s">
+        <v>284</v>
       </c>
       <c r="I61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>42796</v>
+        <v>42795</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>206</v>
+      </c>
+      <c r="E62" t="s">
+        <v>283</v>
       </c>
       <c r="I62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
         <v>42796</v>
@@ -1829,83 +2496,98 @@
         <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>207</v>
+      </c>
+      <c r="E63" t="s">
+        <v>283</v>
       </c>
       <c r="I63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>42810</v>
+        <v>42796</v>
       </c>
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>208</v>
+      </c>
+      <c r="E64" t="s">
+        <v>284</v>
       </c>
       <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>42810</v>
+        <v>42807</v>
       </c>
       <c r="C65" t="s">
         <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>284</v>
       </c>
       <c r="I65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
-        <v>42814</v>
+        <v>42810</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>210</v>
+      </c>
+      <c r="E66" t="s">
+        <v>283</v>
       </c>
       <c r="I66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
-        <v>42814</v>
+        <v>42810</v>
       </c>
       <c r="C67" t="s">
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>211</v>
+      </c>
+      <c r="E67" t="s">
+        <v>284</v>
       </c>
       <c r="I67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
         <v>42814</v>
@@ -1914,15 +2596,18 @@
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
+        <v>283</v>
       </c>
       <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
         <v>42814</v>
@@ -1931,15 +2616,18 @@
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>213</v>
+      </c>
+      <c r="E69" t="s">
+        <v>283</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
         <v>42814</v>
@@ -1948,15 +2636,18 @@
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>214</v>
+      </c>
+      <c r="E70" t="s">
+        <v>284</v>
       </c>
       <c r="I70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
         <v>42814</v>
@@ -1965,452 +2656,1393 @@
         <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>215</v>
+      </c>
+      <c r="E71" t="s">
+        <v>284</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>42829</v>
+        <v>42814</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>216</v>
+      </c>
+      <c r="E72" t="s">
+        <v>284</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>42942</v>
+        <v>42814</v>
       </c>
       <c r="C73" t="s">
         <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>217</v>
+      </c>
+      <c r="E73" t="s">
+        <v>283</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>42942</v>
+        <v>42829</v>
       </c>
       <c r="C74" t="s">
         <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>284</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>42942</v>
+        <v>42830</v>
       </c>
       <c r="C75" t="s">
         <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>219</v>
+      </c>
+      <c r="E75" t="s">
+        <v>284</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2">
-        <v>42942</v>
+        <v>42888</v>
       </c>
       <c r="C76" t="s">
         <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>220</v>
+      </c>
+      <c r="E76" t="s">
+        <v>283</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2">
-        <v>42942</v>
+        <v>42888</v>
       </c>
       <c r="C77" t="s">
         <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>221</v>
+      </c>
+      <c r="E77" t="s">
+        <v>284</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="C78" t="s">
         <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>222</v>
+      </c>
+      <c r="E78" t="s">
+        <v>283</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="C79" t="s">
         <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>103</v>
+        <v>223</v>
+      </c>
+      <c r="E79" t="s">
+        <v>284</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="C80" t="s">
         <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>224</v>
+      </c>
+      <c r="E80" t="s">
+        <v>284</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="C81" t="s">
         <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>225</v>
+      </c>
+      <c r="E81" t="s">
+        <v>284</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="C82" t="s">
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>226</v>
+      </c>
+      <c r="E82" t="s">
+        <v>283</v>
       </c>
       <c r="I82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>42955</v>
+        <v>42905</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>227</v>
+      </c>
+      <c r="E83" t="s">
+        <v>284</v>
       </c>
       <c r="I83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>43103</v>
+        <v>42905</v>
       </c>
       <c r="C84" t="s">
         <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
+        <v>228</v>
+      </c>
+      <c r="E84" t="s">
+        <v>283</v>
       </c>
       <c r="I84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>43194</v>
+        <v>42942</v>
       </c>
       <c r="C85" t="s">
         <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
+        <v>229</v>
+      </c>
+      <c r="E85" t="s">
+        <v>283</v>
       </c>
       <c r="I85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>43194</v>
+        <v>42942</v>
       </c>
       <c r="C86" t="s">
         <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>230</v>
+      </c>
+      <c r="E86" t="s">
+        <v>284</v>
       </c>
       <c r="I86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>43256</v>
+        <v>42942</v>
       </c>
       <c r="C87" t="s">
         <v>93</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>231</v>
+      </c>
+      <c r="E87" t="s">
+        <v>283</v>
       </c>
       <c r="I87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>43256</v>
+        <v>42942</v>
       </c>
       <c r="C88" t="s">
         <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>232</v>
+      </c>
+      <c r="E88" t="s">
+        <v>284</v>
       </c>
       <c r="I88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>43357</v>
+        <v>42942</v>
       </c>
       <c r="C89" t="s">
         <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>233</v>
+      </c>
+      <c r="E89" t="s">
+        <v>283</v>
       </c>
       <c r="I89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>43357</v>
+        <v>42942</v>
       </c>
       <c r="C90" t="s">
         <v>96</v>
       </c>
       <c r="D90" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" t="s">
+        <v>283</v>
+      </c>
+      <c r="I90" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2">
+        <v>42942</v>
+      </c>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" t="s">
+        <v>283</v>
+      </c>
+      <c r="I91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>96</v>
+      </c>
+      <c r="B92" s="2">
+        <v>42942</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" t="s">
+        <v>236</v>
+      </c>
+      <c r="E92" t="s">
+        <v>284</v>
+      </c>
+      <c r="I92" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>97</v>
+      </c>
+      <c r="B93" s="2">
+        <v>42942</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
+        <v>237</v>
+      </c>
+      <c r="E93" t="s">
+        <v>284</v>
+      </c>
+      <c r="I93" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>98</v>
+      </c>
+      <c r="B94" s="2">
+        <v>42942</v>
+      </c>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94" t="s">
+        <v>284</v>
+      </c>
+      <c r="I94" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>99</v>
+      </c>
+      <c r="B95" s="2">
+        <v>42955</v>
+      </c>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" t="s">
+        <v>239</v>
+      </c>
+      <c r="E95" t="s">
+        <v>283</v>
+      </c>
+      <c r="I95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>100</v>
+      </c>
+      <c r="B96" s="2">
+        <v>42955</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>240</v>
+      </c>
+      <c r="E96" t="s">
+        <v>284</v>
+      </c>
+      <c r="I96" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>102</v>
+      </c>
+      <c r="B97" s="2">
+        <v>42976</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>241</v>
+      </c>
+      <c r="E97" t="s">
+        <v>284</v>
+      </c>
+      <c r="I97" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2">
+        <v>42996</v>
+      </c>
+      <c r="C98" t="s">
         <v>104</v>
       </c>
-      <c r="I90" t="s">
+      <c r="D98" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98" t="s">
+        <v>283</v>
+      </c>
+      <c r="I98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>107</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43021</v>
+      </c>
+      <c r="C99" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="1">
+      <c r="D99" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" t="s">
+        <v>284</v>
+      </c>
+      <c r="I99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" t="s">
+        <v>283</v>
+      </c>
+      <c r="I100" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>116</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" t="s">
+        <v>245</v>
+      </c>
+      <c r="E101" t="s">
+        <v>284</v>
+      </c>
+      <c r="I101" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>117</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" t="s">
+        <v>246</v>
+      </c>
+      <c r="E102" t="s">
+        <v>284</v>
+      </c>
+      <c r="I102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>119</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43194</v>
+      </c>
+      <c r="C103" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" t="s">
+        <v>283</v>
+      </c>
+      <c r="I103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>120</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43194</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" t="s">
+        <v>284</v>
+      </c>
+      <c r="I104" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>121</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43251</v>
+      </c>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" t="s">
+        <v>248</v>
+      </c>
+      <c r="E105" t="s">
+        <v>284</v>
+      </c>
+      <c r="I105" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>123</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43256</v>
+      </c>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" t="s">
+        <v>284</v>
+      </c>
+      <c r="I106" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>124</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43256</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
+        <v>250</v>
+      </c>
+      <c r="E107" t="s">
+        <v>283</v>
+      </c>
+      <c r="I107" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>133</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43283</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" t="s">
+        <v>251</v>
+      </c>
+      <c r="E108" t="s">
+        <v>283</v>
+      </c>
+      <c r="I108" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>135</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43340</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>252</v>
+      </c>
+      <c r="E109" t="s">
+        <v>283</v>
+      </c>
+      <c r="I109" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>138</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43357</v>
+      </c>
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110" t="s">
+        <v>283</v>
+      </c>
+      <c r="I110" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>139</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43357</v>
+      </c>
+      <c r="C111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" t="s">
+        <v>254</v>
+      </c>
+      <c r="E111" t="s">
+        <v>284</v>
+      </c>
+      <c r="I111" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>141</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" t="s">
+        <v>284</v>
+      </c>
+      <c r="I112" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>145</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43410</v>
+      </c>
+      <c r="C113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" t="s">
+        <v>256</v>
+      </c>
+      <c r="E113" t="s">
+        <v>283</v>
+      </c>
+      <c r="I113" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>146</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43417</v>
+      </c>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" t="s">
+        <v>283</v>
+      </c>
+      <c r="I114" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>147</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43417</v>
+      </c>
+      <c r="C115" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" t="s">
+        <v>258</v>
+      </c>
+      <c r="E115" t="s">
+        <v>284</v>
+      </c>
+      <c r="I115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>148</v>
+      </c>
+      <c r="B116" s="2">
+        <v>43437</v>
+      </c>
+      <c r="C116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" t="s">
+        <v>259</v>
+      </c>
+      <c r="E116" t="s">
+        <v>283</v>
+      </c>
+      <c r="I116" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>149</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43437</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" t="s">
+        <v>284</v>
+      </c>
+      <c r="I117" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>150</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43437</v>
+      </c>
+      <c r="C118" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" t="s">
+        <v>261</v>
+      </c>
+      <c r="E118" t="s">
+        <v>284</v>
+      </c>
+      <c r="I118" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>154</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43458</v>
+      </c>
+      <c r="C119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" t="s">
+        <v>262</v>
+      </c>
+      <c r="E119" t="s">
+        <v>283</v>
+      </c>
+      <c r="I119" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>156</v>
+      </c>
+      <c r="B120" s="2">
+        <v>43467</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" t="s">
+        <v>284</v>
+      </c>
+      <c r="I120" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>159</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43483</v>
+      </c>
+      <c r="C121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" t="s">
+        <v>264</v>
+      </c>
+      <c r="E121" t="s">
+        <v>283</v>
+      </c>
+      <c r="I121" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>161</v>
+      </c>
+      <c r="B122" s="2">
+        <v>43511</v>
+      </c>
+      <c r="C122" t="s">
+        <v>128</v>
+      </c>
+      <c r="D122" t="s">
+        <v>265</v>
+      </c>
+      <c r="E122" t="s">
+        <v>284</v>
+      </c>
+      <c r="I122" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>162</v>
+      </c>
+      <c r="B123" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C123" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" t="s">
+        <v>266</v>
+      </c>
+      <c r="E123" t="s">
+        <v>284</v>
+      </c>
+      <c r="I123" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>163</v>
+      </c>
+      <c r="B124" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" t="s">
+        <v>267</v>
+      </c>
+      <c r="E124" t="s">
+        <v>283</v>
+      </c>
+      <c r="I124" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>164</v>
+      </c>
+      <c r="B125" s="2">
+        <v>43557</v>
+      </c>
+      <c r="C125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" t="s">
+        <v>268</v>
+      </c>
+      <c r="E125" t="s">
+        <v>284</v>
+      </c>
+      <c r="I125" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>165</v>
+      </c>
+      <c r="B126" s="2">
+        <v>43557</v>
+      </c>
+      <c r="C126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" t="s">
+        <v>269</v>
+      </c>
+      <c r="E126" t="s">
+        <v>283</v>
+      </c>
+      <c r="I126" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
         <v>167</v>
       </c>
-      <c r="B91" s="2">
-        <v>43557</v>
-      </c>
-      <c r="C91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" t="s">
-        <v>103</v>
-      </c>
-      <c r="I91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="1">
+      <c r="B127" s="2">
+        <v>43619</v>
+      </c>
+      <c r="C127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" t="s">
+        <v>270</v>
+      </c>
+      <c r="E127" t="s">
+        <v>283</v>
+      </c>
+      <c r="I127" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>168</v>
+      </c>
+      <c r="B128" s="2">
+        <v>43623</v>
+      </c>
+      <c r="C128" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" t="s">
+        <v>271</v>
+      </c>
+      <c r="E128" t="s">
+        <v>284</v>
+      </c>
+      <c r="I128" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
         <v>169</v>
       </c>
-      <c r="B92" s="2">
-        <v>43619</v>
-      </c>
-      <c r="C92" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" t="s">
-        <v>103</v>
-      </c>
-      <c r="I92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="1">
-        <v>174</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="B129" s="2">
+        <v>43623</v>
+      </c>
+      <c r="C129" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" t="s">
+        <v>272</v>
+      </c>
+      <c r="E129" t="s">
+        <v>283</v>
+      </c>
+      <c r="I129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>170</v>
+      </c>
+      <c r="B130" s="2">
         <v>43647</v>
       </c>
-      <c r="C93" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" t="s">
-        <v>103</v>
-      </c>
-      <c r="I93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="1">
+      <c r="C130" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" t="s">
+        <v>273</v>
+      </c>
+      <c r="E130" t="s">
+        <v>284</v>
+      </c>
+      <c r="I130" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>171</v>
+      </c>
+      <c r="B131" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" t="s">
+        <v>274</v>
+      </c>
+      <c r="E131" t="s">
+        <v>283</v>
+      </c>
+      <c r="I131" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>177</v>
+      </c>
+      <c r="B132" s="2">
+        <v>43686</v>
+      </c>
+      <c r="C132" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" t="s">
+        <v>275</v>
+      </c>
+      <c r="E132" t="s">
+        <v>284</v>
+      </c>
+      <c r="I132" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>178</v>
+      </c>
+      <c r="B133" s="2">
+        <v>43731</v>
+      </c>
+      <c r="C133" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" t="s">
+        <v>284</v>
+      </c>
+      <c r="I133" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>179</v>
+      </c>
+      <c r="B134" s="2">
+        <v>43731</v>
+      </c>
+      <c r="C134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" t="s">
+        <v>276</v>
+      </c>
+      <c r="E134" t="s">
+        <v>283</v>
+      </c>
+      <c r="I134" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>180</v>
+      </c>
+      <c r="B135" s="2">
+        <v>43734</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" t="s">
+        <v>277</v>
+      </c>
+      <c r="E135" t="s">
+        <v>284</v>
+      </c>
+      <c r="I135" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
         <v>181</v>
       </c>
-      <c r="B94" s="2">
-        <v>43731</v>
-      </c>
-      <c r="C94" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" t="s">
-        <v>104</v>
-      </c>
-      <c r="I94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="1">
-        <v>182</v>
-      </c>
-      <c r="B95" s="2">
-        <v>43731</v>
-      </c>
-      <c r="C95" t="s">
-        <v>100</v>
-      </c>
-      <c r="D95" t="s">
-        <v>103</v>
-      </c>
-      <c r="I95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="1">
+      <c r="B136" s="2">
+        <v>43734</v>
+      </c>
+      <c r="C136" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" t="s">
+        <v>278</v>
+      </c>
+      <c r="E136" t="s">
+        <v>283</v>
+      </c>
+      <c r="I136" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>184</v>
+      </c>
+      <c r="B137" s="2">
+        <v>43790</v>
+      </c>
+      <c r="C137" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" t="s">
+        <v>279</v>
+      </c>
+      <c r="E137" t="s">
+        <v>284</v>
+      </c>
+      <c r="I137" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>185</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43790</v>
+      </c>
+      <c r="C138" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" t="s">
+        <v>280</v>
+      </c>
+      <c r="E138" t="s">
+        <v>283</v>
+      </c>
+      <c r="I138" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
         <v>187</v>
       </c>
-      <c r="B96" s="2">
-        <v>43790</v>
-      </c>
-      <c r="C96" t="s">
-        <v>101</v>
-      </c>
-      <c r="D96" t="s">
-        <v>104</v>
-      </c>
-      <c r="I96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="1">
-        <v>188</v>
-      </c>
-      <c r="B97" s="2">
-        <v>43790</v>
-      </c>
-      <c r="C97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I97" t="s">
-        <v>105</v>
+      <c r="B139" s="2">
+        <v>43804</v>
+      </c>
+      <c r="C139" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" t="s">
+        <v>281</v>
+      </c>
+      <c r="E139" t="s">
+        <v>284</v>
+      </c>
+      <c r="I139" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>195</v>
+      </c>
+      <c r="B140" s="2">
+        <v>43822</v>
+      </c>
+      <c r="C140" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" t="s">
+        <v>282</v>
+      </c>
+      <c r="E140" t="s">
+        <v>284</v>
+      </c>
+      <c r="I140" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
